--- a/Dependence.xlsx
+++ b/Dependence.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9B3CCF-F03E-4796-AA5C-A3E8F82719E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF9CEA-4A36-408C-880B-91969E6D2548}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,6 +415,56 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$18:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -445,10 +491,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$18:$B$30</c:f>
+              <c:f>Лист1!$B$18:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -487,54 +533,60 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$18:$A$30</c:f>
+              <c:f>Лист1!$A$18:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,7 +594,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0AAD-4790-8085-1ED08AF3D6BC}"/>
+              <c16:uniqueId val="{00000000-BEB5-4C60-84E7-1A07ED08FBC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -556,11 +608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="863596128"/>
-        <c:axId val="975952912"/>
+        <c:axId val="13866399"/>
+        <c:axId val="14178191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="863596128"/>
+        <c:axId val="13866399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +655,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="975952912"/>
+        <c:crossAx val="14178191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="975952912"/>
+        <c:axId val="14178191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +700,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="863596128"/>
+        <c:crossAx val="13866399"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1840,22 +1892,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A049C76-AAD7-45D8-B94E-E25C29DCA1F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000AE54F-503F-4725-AF4F-C75419367693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2264,7 +2316,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0.1</v>
@@ -2272,7 +2324,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>0.01</v>
@@ -2280,7 +2332,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>1E-3</v>
@@ -2288,7 +2340,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>1E-4</v>
@@ -2296,7 +2348,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>1.0000000000000001E-5</v>
@@ -2304,7 +2356,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>9.9999999999999995E-7</v>
@@ -2312,7 +2364,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>9.9999999999999995E-8</v>
@@ -2320,7 +2372,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>1E-8</v>
@@ -2328,7 +2380,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1.0000000000000001E-9</v>
@@ -2336,7 +2388,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>1E-10</v>
@@ -2344,7 +2396,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>9.9999999999999994E-12</v>
@@ -2352,7 +2404,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>9.9999999999999998E-13</v>
@@ -2360,13 +2412,16 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>1E-13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>15</v>
+      </c>
       <c r="B31">
         <v>1E-14</v>
       </c>
